--- a/study2/presentation_materials/study2a_analysis_list.xlsx
+++ b/study2/presentation_materials/study2a_analysis_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76917F74-5450-4346-A692-EF8F94FA5746}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A8608AD-DEAD-4DCC-AADA-9651883867CC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
   </bookViews>
@@ -355,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,21 +389,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,6 +409,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,22 +522,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>195384</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128221</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>328734</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>80108</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232B5D3B-E5CB-8E46-573D-4E858024F6C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A6BE4D-1426-0593-119C-5EF01F6A384C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -551,8 +560,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="195384" y="128221"/>
-          <a:ext cx="11343542" cy="4244243"/>
+          <a:off x="215900" y="127000"/>
+          <a:ext cx="11474450" cy="4292600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,28 +925,28 @@
   <sheetData>
     <row r="1" spans="2:7" ht="5" customHeight="1"/>
     <row r="2" spans="2:7" ht="20" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="20" customHeight="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1046,15 +1055,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2507FF-4557-4A7E-B6B7-85A73F2A8A69}">
   <dimension ref="B1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J10"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.08203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.08203125" style="1" customWidth="1"/>
@@ -1066,38 +1076,38 @@
   <sheetData>
     <row r="1" spans="2:12" ht="5" customHeight="1"/>
     <row r="2" spans="2:12" ht="20" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:12" ht="20" customHeight="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1106,28 +1116,28 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="54" customHeight="1">
-      <c r="B4" s="11">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="1">
@@ -1136,29 +1146,29 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="36" customHeight="1">
-      <c r="B5" s="11">
+      <c r="B5" s="18">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="1">
@@ -1167,108 +1177,108 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="54" customHeight="1">
-      <c r="B6" s="11">
+      <c r="B6" s="18">
         <f t="shared" ref="B6" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="36" customHeight="1">
-      <c r="B7" s="11">
+      <c r="B7" s="18">
         <f>B6+1</f>
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="54" customHeight="1">
-      <c r="B8" s="11">
+      <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="54" customHeight="1">
-      <c r="B9" s="2">
+      <c r="B9" s="19">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1308,7 +1318,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
